--- a/sprawka/lab3/wyniki.xlsx
+++ b/sprawka/lab3/wyniki.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuperCiuper\Documents\GitHub\PEAproject\sprawka\lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuperCiuper\Documents\GitHub\PEAproject\sprawka\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A41235-9AFD-468E-8AEE-4D3216AF7888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE581425-FB68-4EFA-9B77-A4CE11C26CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{35CB0FE1-15B9-4927-961C-D0566F903D09}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>n</t>
   </si>
@@ -45,9 +45,6 @@
     <t>time [ms]</t>
   </si>
   <si>
-    <t>expected time [ms]</t>
-  </si>
-  <si>
     <t>KARP</t>
   </si>
   <si>
@@ -55,6 +52,15 @@
   </si>
   <si>
     <t>Held-Karp</t>
+  </si>
+  <si>
+    <t>B&amp;B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory usage [GB] </t>
+  </si>
+  <si>
+    <t>expected time [ms]</t>
   </si>
 </sst>
 </file>
@@ -455,6 +461,75 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9C7C-4D1D-925B-1130EA06A915}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B&amp;B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="5">
+                  <c:v>2.9666000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>103.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5181.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14641.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1286.9000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD11-4AFE-87BE-58F2A0536E6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -728,7 +803,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -739,7 +814,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$3</c:f>
+              <c:f>Sheet1!$W$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -774,78 +849,57 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$O$4:$O$18</c:f>
+              <c:f>Sheet1!$V$6:$V$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$9:$P$18</c:f>
+              <c:f>Sheet1!$W$6:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>61.766800000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1435.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3083.1</c:v>
+                  <c:v>2.9666000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5181.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14641.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14576.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>52440.3</c:v>
+                  <c:v>1286.9000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,149 +907,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-32F2-4EAA-8D27-2EC80D211D58}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$Q$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>expected time [ms]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$O$4:$O$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Q$9:$Q$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>50.506410666666667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>113.246208</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>252.35729066666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>559.24053333333336</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1233.125376</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2706.7241813333335</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5916.7648426666665</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12884.901888</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27962.026666666668</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60487.456085333331</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-32F2-4EAA-8D27-2EC80D211D58}"/>
+              <c16:uniqueId val="{00000000-45F4-4CED-A428-797575710EE6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1011,6 +923,151 @@
         <c:smooth val="0"/>
         <c:axId val="1471491792"/>
         <c:axId val="1482048864"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$Q$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>expected time [ms]</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$V$6:$V$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>21</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$Q$9:$Q$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>50.506410670000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>113.246208</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>252.35729069999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>559.24053330000004</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1233.125376</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2706.724181</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5916.7648429999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12884.901889999999</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>27962.026669999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>60487.45609</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-45F4-4CED-A428-797575710EE6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1471491792"/>
@@ -1263,6 +1320,476 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AE$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Memory usage [GB] </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$4:$AD$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AE$4:$AE$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="2">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A0C-4E3C-9082-24BB8DCF5BBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="258282431"/>
+        <c:axId val="258284095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="258282431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="26"/>
+          <c:min val="12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258284095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="258284095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Memory usage [GB]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258282431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1343,6 +1870,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2330,6 +2897,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2354,15 +3437,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:colOff>695325</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2389,29 +3472,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC33617-2BB3-472E-B956-B935C5ADC7F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F07A5A-77C1-4252-9200-FB69EF22FF0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2420,6 +3501,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACA258A0-CADC-491B-9C49-AFA5C0D90B06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2725,10 +3842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E030250-1702-4C2B-BFB2-8B2C0A8742D5}">
-  <dimension ref="D3:Q21"/>
+  <dimension ref="D3:AE21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2739,9 +3856,13 @@
     <col min="7" max="7" width="27.42578125" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
     <col min="17" max="17" width="21.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" customWidth="1"/>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -2749,13 +3870,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
         <v>1</v>
@@ -2767,10 +3891,28 @@
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="T3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>4.0467000000000004</v>
       </c>
@@ -2781,18 +3923,18 @@
         <f>D4/10</f>
         <v>0.40467000000000003</v>
       </c>
-      <c r="O4">
-        <v>9</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P15" si="0">N4/10</f>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
+      <c r="V4">
+        <v>12</v>
+      </c>
+      <c r="X4">
+        <f>FACT(V4)/1000000</f>
+        <v>479.0016</v>
+      </c>
+      <c r="AD4">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>37.264000000000003</v>
       </c>
@@ -2800,22 +3942,21 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F9" si="1">D5/10</f>
+        <f t="shared" ref="F5:F9" si="0">D5/10</f>
         <v>3.7264000000000004</v>
       </c>
-      <c r="O5">
-        <v>10</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f>2^O5*O5^2/750000</f>
-        <v>0.13653333333333334</v>
+      <c r="V5">
+        <v>13</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ref="X5:X13" si="1">FACT(V5)/1000000</f>
+        <v>6227.0208000000002</v>
+      </c>
+      <c r="AD5">
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>411.33</v>
       </c>
@@ -2823,22 +3964,31 @@
         <v>11</v>
       </c>
       <c r="F6">
+        <f t="shared" si="0"/>
+        <v>41.132999999999996</v>
+      </c>
+      <c r="U6">
+        <v>29.666</v>
+      </c>
+      <c r="V6">
+        <v>14</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W4:W7" si="2">U6/10</f>
+        <v>2.9666000000000001</v>
+      </c>
+      <c r="X6">
         <f t="shared" si="1"/>
-        <v>41.132999999999996</v>
-      </c>
-      <c r="O6">
-        <v>11</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" ref="Q6:Q18" si="2">2^O6*O6^2/750000</f>
-        <v>0.33041066666666669</v>
+        <v>87178.291200000007</v>
+      </c>
+      <c r="AD6">
+        <v>14</v>
+      </c>
+      <c r="AE6">
+        <v>2E-3</v>
       </c>
     </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>4736.2</v>
       </c>
@@ -2846,22 +3996,43 @@
         <v>12</v>
       </c>
       <c r="F7">
+        <f t="shared" si="0"/>
+        <v>473.62</v>
+      </c>
+      <c r="N7">
+        <v>12.495799999999999</v>
+      </c>
+      <c r="O7">
+        <v>15</v>
+      </c>
+      <c r="P7">
+        <v>1.2495799999999999</v>
+      </c>
+      <c r="Q7">
+        <v>9.8303999999999991</v>
+      </c>
+      <c r="U7">
+        <v>1032.8</v>
+      </c>
+      <c r="V7">
+        <v>15</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>103.28</v>
+      </c>
+      <c r="X7">
         <f t="shared" si="1"/>
-        <v>473.62</v>
-      </c>
-      <c r="O7">
-        <v>12</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="2"/>
-        <v>0.78643200000000002</v>
+        <v>1307674.368</v>
+      </c>
+      <c r="AD7">
+        <v>15</v>
+      </c>
+      <c r="AE7">
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>59229.8</v>
       </c>
@@ -2869,22 +4040,37 @@
         <v>13</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5922.9800000000005</v>
       </c>
       <c r="O8">
         <v>16</v>
       </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="Q8">
-        <f t="shared" si="2"/>
-        <v>22.369621333333335</v>
+        <v>22.369621330000001</v>
+      </c>
+      <c r="U8">
+        <v>51815</v>
+      </c>
+      <c r="V8">
+        <v>16</v>
+      </c>
+      <c r="W8">
+        <f>U8/10</f>
+        <v>5181.5</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="1"/>
+        <v>20922789.888</v>
+      </c>
+      <c r="AD8">
+        <v>16</v>
+      </c>
+      <c r="AE8">
+        <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>818667</v>
       </c>
@@ -2892,8 +4078,12 @@
         <v>14</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>81866.7</v>
+      </c>
+      <c r="H9">
+        <f>W6</f>
+        <v>2.9666000000000001</v>
       </c>
       <c r="N9">
         <v>617.66800000000001</v>
@@ -2902,205 +4092,301 @@
         <v>17</v>
       </c>
       <c r="P9">
-        <f t="shared" si="0"/>
         <v>61.766800000000003</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="2"/>
-        <v>50.506410666666667</v>
+        <v>50.506410670000001</v>
+      </c>
+      <c r="U9">
+        <v>146413</v>
+      </c>
+      <c r="V9">
+        <v>17</v>
+      </c>
+      <c r="W9">
+        <f t="shared" ref="W9" si="3">U9/10</f>
+        <v>14641.3</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="1"/>
+        <v>355687428.09600002</v>
+      </c>
+      <c r="AD9">
+        <v>17</v>
+      </c>
+      <c r="AE9">
+        <v>3.9</v>
       </c>
     </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>3597490</v>
       </c>
       <c r="E10">
         <v>15</v>
       </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H21" si="4">W7</f>
+        <v>103.28</v>
+      </c>
       <c r="O10">
-        <f>O9+1</f>
         <v>18</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="2"/>
         <v>113.246208</v>
       </c>
+      <c r="V10">
+        <f>V9+1</f>
+        <v>18</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="1"/>
+        <v>6402373705.7279997</v>
+      </c>
+      <c r="AD10">
+        <f>AD9+1</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:31" x14ac:dyDescent="0.25">
       <c r="E11">
         <f>E10+1</f>
         <v>16</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>5181.5</v>
+      </c>
       <c r="O11">
-        <f t="shared" ref="O11:O18" si="3">O10+1</f>
         <v>19</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>252.35729066666667</v>
+        <v>252.35729069999999</v>
+      </c>
+      <c r="V11">
+        <f t="shared" ref="V11:V13" si="5">V10+1</f>
+        <v>19</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="1"/>
+        <v>121645100408.832</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" ref="AD11:AD18" si="6">AD10+1</f>
+        <v>19</v>
       </c>
     </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:31" x14ac:dyDescent="0.25">
       <c r="E12">
-        <f t="shared" ref="E12:E18" si="4">E11+1</f>
+        <f t="shared" ref="E12:E18" si="7">E11+1</f>
         <v>17</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G18" si="5">P9</f>
+        <f t="shared" ref="G12:G17" si="8">P9</f>
         <v>61.766800000000003</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>14641.3</v>
+      </c>
       <c r="O12">
-        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
-        <v>559.24053333333336</v>
+        <v>559.24053330000004</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="1"/>
+        <v>2432902008176.6401</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:31" x14ac:dyDescent="0.25">
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="N13">
         <v>14357</v>
       </c>
       <c r="O13">
-        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="P13">
-        <f>N13/10</f>
         <v>1435.7</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
         <v>1233.125376</v>
       </c>
+      <c r="U13">
+        <v>12869</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="W13">
+        <f>U13/10</f>
+        <v>1286.9000000000001</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="1"/>
+        <v>51090942171709.438</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="AE13">
+        <v>0.40100000000000002</v>
+      </c>
     </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:31" x14ac:dyDescent="0.25">
       <c r="E14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="N14">
         <v>30831</v>
       </c>
       <c r="O14">
-        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
         <v>3083.1</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="2"/>
-        <v>2706.7241813333335</v>
+        <v>2706.724181</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="AE14">
+        <v>19</v>
       </c>
     </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:31" x14ac:dyDescent="0.25">
       <c r="E15">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="O15">
+        <v>23</v>
+      </c>
+      <c r="Q15">
+        <v>5916.7648429999999</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="8"/>
+        <v>1435.7</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="2"/>
-        <v>5916.7648426666665</v>
-      </c>
-    </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="E16">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="5"/>
-        <v>1435.7</v>
+        <v>1286.9000000000001</v>
       </c>
       <c r="N16">
         <v>145768</v>
       </c>
       <c r="O16">
-        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="P16">
-        <f>N16/10</f>
         <v>14576.8</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="2"/>
-        <v>12884.901888</v>
+        <v>12884.901889999999</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="AE16">
+        <v>19</v>
       </c>
     </row>
-    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="G17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3083.1</v>
       </c>
       <c r="O17">
-        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="2"/>
-        <v>27962.026666666668</v>
+        <v>27962.026669999999</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="6"/>
+        <v>25</v>
       </c>
     </row>
-    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="N18">
         <v>524403</v>
       </c>
       <c r="O18">
-        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="P18">
-        <f t="shared" ref="P17:P18" si="6">N18/10</f>
         <v>52440.3</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="2"/>
-        <v>60487.456085333331</v>
+        <v>60487.45609</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
     </row>
-    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E19">
-        <f t="shared" ref="E19:E21" si="7">E18+1</f>
+        <f t="shared" ref="E19:E21" si="9">E18+1</f>
         <v>24</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G21" si="8">P16</f>
+        <f t="shared" ref="G19:G21" si="10">P16</f>
         <v>14576.8</v>
       </c>
     </row>
-    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="G21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>52440.3</v>
       </c>
     </row>

--- a/sprawka/lab3/wyniki.xlsx
+++ b/sprawka/lab3/wyniki.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuperCiuper\Documents\GitHub\PEAproject\sprawka\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE581425-FB68-4EFA-9B77-A4CE11C26CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3234C0-4D95-4CCC-8B02-B265A61189D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{35CB0FE1-15B9-4927-961C-D0566F903D09}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>n</t>
   </si>
@@ -48,25 +48,32 @@
     <t>KARP</t>
   </si>
   <si>
-    <t>BruteForce [ms]</t>
-  </si>
-  <si>
-    <t>Held-Karp</t>
-  </si>
-  <si>
     <t>B&amp;B</t>
   </si>
   <si>
     <t xml:space="preserve">Memory usage [GB] </t>
   </si>
   <si>
-    <t>expected time [ms]</t>
+    <t>BruteForce [s]</t>
+  </si>
+  <si>
+    <t>Held-Karp [s]</t>
+  </si>
+  <si>
+    <t>B&amp;B [s]</t>
+  </si>
+  <si>
+    <t>time [s]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,8 +103,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,7 +213,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BruteForce [ms]</c:v>
+                  <c:v>BruteForce [s]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -300,30 +309,30 @@
             <c:numRef>
               <c:f>Sheet1!$F$4:$F$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.40467000000000003</c:v>
+                  <c:v>4.0467000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7264000000000004</c:v>
+                  <c:v>3.7264000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.132999999999996</c:v>
+                  <c:v>4.1132999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>473.62</c:v>
+                  <c:v>0.47361999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5922.9800000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>81866.7</c:v>
+                  <c:v>5.9229800000000008</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.000">
+                  <c:v>81.866699999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9C7C-4D1D-925B-1130EA06A915}"/>
@@ -339,7 +348,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Held-Karp</c:v>
+                  <c:v>Held-Karp [s]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -440,24 +449,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="8">
-                  <c:v>61.766800000000003</c:v>
+                  <c:v>6.1766800000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1435.7</c:v>
+                  <c:v>1.4357</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3083.1</c:v>
+                  <c:v>3.0831</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14576.8</c:v>
+                  <c:v>14.576799999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52440.3</c:v>
+                  <c:v>52.440300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9C7C-4D1D-925B-1130EA06A915}"/>
@@ -473,7 +482,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>B&amp;B</c:v>
+                  <c:v>B&amp;B [s]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -508,20 +517,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
-                <c:pt idx="5">
-                  <c:v>2.9666000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>103.28</c:v>
+                <c:pt idx="5" formatCode="0.0000">
+                  <c:v>2.9666000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0000">
+                  <c:v>0.10328</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5181.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14641.3</c:v>
+                  <c:v>5.1814999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.000">
+                  <c:v>14.641299999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1286.9000000000001</c:v>
+                  <c:v>1.2869000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -678,7 +687,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -814,11 +823,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$3</c:f>
+              <c:f>Sheet1!$V$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>time [ms]</c:v>
+                  <c:v>time [s]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -849,7 +858,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$V$6:$V$13</c:f>
+              <c:f>Sheet1!$U$6:$U$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -882,24 +891,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$6:$W$13</c:f>
+              <c:f>Sheet1!$V$6:$V$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.9666000000000001</c:v>
+                  <c:v>2.9666000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>103.28</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5181.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14641.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1286.9000000000001</c:v>
+                  <c:v>0.10328</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>5.1814999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>14.641299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.2869000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,9 +949,6 @@
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>expected time [ms]</c:v>
-                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -979,7 +985,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$V$6:$V$13</c15:sqref>
+                          <c15:sqref>Sheet1!$U$6:$U$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1025,36 +1031,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>50.506410670000001</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>113.246208</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>252.35729069999999</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>559.24053330000004</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1233.125376</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2706.724181</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>5916.7648429999999</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>12884.901889999999</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>27962.026669999999</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>60487.45609</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -1201,7 +1177,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1236,45 +1212,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1375,7 +1312,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AE$3</c:f>
+              <c:f>Sheet1!$AD$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1408,7 +1345,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AD$4:$AD$18</c:f>
+              <c:f>Sheet1!$AC$4:$AC$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1462,7 +1399,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AE$4:$AE$18</c:f>
+              <c:f>Sheet1!$AD$4:$AD$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1531,61 +1468,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>n</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1670,7 +1552,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Memory usage [GB]</a:t>
+                  <a:t>Memory [GB]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3472,13 +3354,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
@@ -3508,13 +3390,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>309562</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
@@ -3842,10 +3724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E030250-1702-4C2B-BFB2-8B2C0A8742D5}">
-  <dimension ref="D3:AE21"/>
+  <dimension ref="D3:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3855,14 +3737,12 @@
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="27.42578125" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" customWidth="1"/>
-    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.5703125" customWidth="1"/>
+    <col min="17" max="18" width="21.140625" customWidth="1"/>
+    <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -3870,13 +3750,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L3" t="s">
         <v>3</v>
@@ -3890,114 +3770,99 @@
       <c r="P3" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" t="s">
-        <v>8</v>
+      <c r="S3" t="s">
+        <v>4</v>
       </c>
       <c r="T3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" t="s">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>2</v>
-      </c>
       <c r="AD3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>4.0467000000000004</v>
       </c>
       <c r="E4">
         <v>9</v>
       </c>
-      <c r="F4">
-        <f>D4/10</f>
-        <v>0.40467000000000003</v>
-      </c>
-      <c r="V4">
+      <c r="F4" s="1">
+        <f>D4/10/1000</f>
+        <v>4.0467000000000004E-4</v>
+      </c>
+      <c r="U4">
         <v>12</v>
       </c>
-      <c r="X4">
-        <f>FACT(V4)/1000000</f>
-        <v>479.0016</v>
-      </c>
-      <c r="AD4">
+      <c r="AC4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>37.264000000000003</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F9" si="0">D5/10</f>
-        <v>3.7264000000000004</v>
-      </c>
-      <c r="V5">
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F9" si="0">D5/10/1000</f>
+        <v>3.7264000000000004E-3</v>
+      </c>
+      <c r="U5">
         <v>13</v>
       </c>
-      <c r="X5">
-        <f t="shared" ref="X5:X13" si="1">FACT(V5)/1000000</f>
-        <v>6227.0208000000002</v>
-      </c>
-      <c r="AD5">
+      <c r="AC5">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>411.33</v>
       </c>
       <c r="E6">
         <v>11</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>41.132999999999996</v>
+        <v>4.1132999999999996E-2</v>
+      </c>
+      <c r="T6">
+        <v>29.666</v>
       </c>
       <c r="U6">
-        <v>29.666</v>
-      </c>
-      <c r="V6">
         <v>14</v>
       </c>
-      <c r="W6">
-        <f t="shared" ref="W4:W7" si="2">U6/10</f>
-        <v>2.9666000000000001</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="1"/>
-        <v>87178.291200000007</v>
+      <c r="V6" s="1">
+        <f>T6/10/1000</f>
+        <v>2.9666000000000002E-3</v>
+      </c>
+      <c r="AC6">
+        <v>14</v>
       </c>
       <c r="AD6">
-        <v>14</v>
-      </c>
-      <c r="AE6">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="7" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>4736.2</v>
       </c>
       <c r="E7">
         <v>12</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>473.62</v>
+        <v>0.47361999999999999</v>
       </c>
       <c r="N7">
         <v>12.495799999999999</v>
@@ -4005,85 +3870,73 @@
       <c r="O7">
         <v>15</v>
       </c>
-      <c r="P7">
-        <v>1.2495799999999999</v>
-      </c>
-      <c r="Q7">
-        <v>9.8303999999999991</v>
+      <c r="P7" s="1">
+        <f>1.24958/1000</f>
+        <v>1.2495799999999999E-3</v>
+      </c>
+      <c r="T7">
+        <v>1032.8</v>
       </c>
       <c r="U7">
-        <v>1032.8</v>
-      </c>
-      <c r="V7">
         <v>15</v>
       </c>
-      <c r="W7">
-        <f t="shared" si="2"/>
-        <v>103.28</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="1"/>
-        <v>1307674.368</v>
+      <c r="V7" s="1">
+        <f t="shared" ref="V7:V13" si="1">T7/10/1000</f>
+        <v>0.10328</v>
+      </c>
+      <c r="AC7">
+        <v>15</v>
       </c>
       <c r="AD7">
-        <v>15</v>
-      </c>
-      <c r="AE7">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>59229.8</v>
       </c>
       <c r="E8">
         <v>13</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>5922.9800000000005</v>
+        <v>5.9229800000000008</v>
       </c>
       <c r="O8">
         <v>16</v>
       </c>
-      <c r="Q8">
-        <v>22.369621330000001</v>
+      <c r="P8" s="1"/>
+      <c r="T8">
+        <v>51815</v>
       </c>
       <c r="U8">
-        <v>51815</v>
+        <v>16</v>
       </c>
       <c r="V8">
+        <f t="shared" si="1"/>
+        <v>5.1814999999999998</v>
+      </c>
+      <c r="AC8">
         <v>16</v>
       </c>
-      <c r="W8">
-        <f>U8/10</f>
-        <v>5181.5</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="1"/>
-        <v>20922789.888</v>
-      </c>
       <c r="AD8">
-        <v>16</v>
-      </c>
-      <c r="AE8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>818667</v>
       </c>
       <c r="E9">
         <v>14</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>81866.7</v>
-      </c>
-      <c r="H9">
-        <f>W6</f>
-        <v>2.9666000000000001</v>
+      <c r="F9" s="2">
+        <f>D9/10/1000</f>
+        <v>81.866699999999994</v>
+      </c>
+      <c r="H9" s="1">
+        <f>V6</f>
+        <v>2.9666000000000002E-3</v>
       </c>
       <c r="N9">
         <v>617.66800000000001</v>
@@ -4091,216 +3944,178 @@
       <c r="O9">
         <v>17</v>
       </c>
-      <c r="P9">
-        <v>61.766800000000003</v>
-      </c>
-      <c r="Q9">
-        <v>50.506410670000001</v>
+      <c r="P9" s="1">
+        <f>61.7668/1000</f>
+        <v>6.1766800000000004E-2</v>
+      </c>
+      <c r="T9">
+        <v>146413</v>
       </c>
       <c r="U9">
-        <v>146413</v>
-      </c>
-      <c r="V9">
         <v>17</v>
       </c>
-      <c r="W9">
-        <f t="shared" ref="W9" si="3">U9/10</f>
-        <v>14641.3</v>
-      </c>
-      <c r="X9">
+      <c r="V9" s="2">
         <f t="shared" si="1"/>
-        <v>355687428.09600002</v>
+        <v>14.641299999999999</v>
+      </c>
+      <c r="AC9">
+        <v>17</v>
       </c>
       <c r="AD9">
-        <v>17</v>
-      </c>
-      <c r="AE9">
         <v>3.9</v>
       </c>
     </row>
-    <row r="10" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>3597490</v>
       </c>
       <c r="E10">
         <v>15</v>
       </c>
-      <c r="H10">
-        <f t="shared" ref="H10:H21" si="4">W7</f>
-        <v>103.28</v>
+      <c r="H10" s="1">
+        <f t="shared" ref="H10:H16" si="2">V7</f>
+        <v>0.10328</v>
       </c>
       <c r="O10">
         <v>18</v>
       </c>
-      <c r="Q10">
-        <v>113.246208</v>
-      </c>
-      <c r="V10">
-        <f>V9+1</f>
+      <c r="U10">
+        <f>U9+1</f>
         <v>18</v>
       </c>
-      <c r="X10">
-        <f t="shared" si="1"/>
-        <v>6402373705.7279997</v>
-      </c>
-      <c r="AD10">
-        <f>AD9+1</f>
+      <c r="AC10">
+        <f>AC9+1</f>
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:30" x14ac:dyDescent="0.25">
       <c r="E11">
         <f>E10+1</f>
         <v>16</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
-        <v>5181.5</v>
+        <f t="shared" si="2"/>
+        <v>5.1814999999999998</v>
       </c>
       <c r="O11">
         <v>19</v>
       </c>
-      <c r="Q11">
-        <v>252.35729069999999</v>
-      </c>
-      <c r="V11">
-        <f t="shared" ref="V11:V13" si="5">V10+1</f>
+      <c r="U11">
+        <f t="shared" ref="U11:U13" si="3">U10+1</f>
         <v>19</v>
       </c>
-      <c r="X11">
-        <f t="shared" si="1"/>
-        <v>121645100408.832</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" ref="AD11:AD18" si="6">AD10+1</f>
+      <c r="AC11">
+        <f t="shared" ref="AC11:AC18" si="4">AC10+1</f>
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:30" x14ac:dyDescent="0.25">
       <c r="E12">
-        <f t="shared" ref="E12:E18" si="7">E11+1</f>
+        <f t="shared" ref="E12:E18" si="5">E11+1</f>
         <v>17</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G17" si="8">P9</f>
-        <v>61.766800000000003</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="4"/>
-        <v>14641.3</v>
+        <f t="shared" ref="G12:G17" si="6">P9</f>
+        <v>6.1766800000000004E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>14.641299999999999</v>
       </c>
       <c r="O12">
         <v>20</v>
       </c>
-      <c r="Q12">
-        <v>559.24053330000004</v>
-      </c>
-      <c r="V12">
+      <c r="U12">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="N13">
+        <v>14357</v>
+      </c>
+      <c r="O13">
+        <v>21</v>
+      </c>
+      <c r="P13">
+        <f>1435.7/1000</f>
+        <v>1.4357</v>
+      </c>
+      <c r="T13">
+        <v>12869</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>1.2869000000000002</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="AD13">
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="N14">
+        <v>30831</v>
+      </c>
+      <c r="O14">
+        <v>22</v>
+      </c>
+      <c r="P14">
+        <f>3083.1/1000</f>
+        <v>3.0831</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="AD14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="E15">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="X12">
-        <f t="shared" si="1"/>
-        <v>2432902008176.6401</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="6"/>
-        <v>20</v>
+      <c r="O15">
+        <v>23</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
     </row>
-    <row r="13" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="E13">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="N13">
-        <v>14357</v>
-      </c>
-      <c r="O13">
-        <v>21</v>
-      </c>
-      <c r="P13">
-        <v>1435.7</v>
-      </c>
-      <c r="Q13">
-        <v>1233.125376</v>
-      </c>
-      <c r="U13">
-        <v>12869</v>
-      </c>
-      <c r="V13">
+    <row r="16" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="E16">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="W13">
-        <f>U13/10</f>
-        <v>1286.9000000000001</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="1"/>
-        <v>51090942171709.438</v>
-      </c>
-      <c r="AD13">
+      <c r="G16">
         <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="AE13">
-        <v>0.40100000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="E14">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="N14">
-        <v>30831</v>
-      </c>
-      <c r="O14">
-        <v>22</v>
-      </c>
-      <c r="P14">
-        <v>3083.1</v>
-      </c>
-      <c r="Q14">
-        <v>2706.724181</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="AE14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="E15">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="O15">
-        <v>23</v>
-      </c>
-      <c r="Q15">
-        <v>5916.7648429999999</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="E16">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="8"/>
-        <v>1435.7</v>
+        <v>1.4357</v>
       </c>
       <c r="H16">
-        <f t="shared" si="4"/>
-        <v>1286.9000000000001</v>
+        <f t="shared" si="2"/>
+        <v>1.2869000000000002</v>
       </c>
       <c r="N16">
         <v>145768</v>
@@ -4308,43 +4123,38 @@
       <c r="O16">
         <v>24</v>
       </c>
-      <c r="P16">
-        <v>14576.8</v>
-      </c>
-      <c r="Q16">
-        <v>12884.901889999999</v>
+      <c r="P16" s="2">
+        <f>14576.8/1000</f>
+        <v>14.576799999999999</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
       <c r="AD16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="AE16">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E17">
-        <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="8"/>
-        <v>3083.1</v>
+        <v>3.0831</v>
       </c>
       <c r="O17">
         <v>25</v>
       </c>
-      <c r="Q17">
-        <v>27962.026669999999</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" si="6"/>
+      <c r="AC17">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="N18">
@@ -4353,41 +4163,39 @@
       <c r="O18">
         <v>26</v>
       </c>
-      <c r="P18">
-        <v>52440.3</v>
-      </c>
-      <c r="Q18">
-        <v>60487.45609</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" si="6"/>
+      <c r="P18" s="2">
+        <f>52440.3/1000</f>
+        <v>52.440300000000001</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E19">
-        <f t="shared" ref="E19:E21" si="9">E18+1</f>
+        <f t="shared" ref="E19:E21" si="7">E18+1</f>
         <v>24</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G21" si="10">P16</f>
-        <v>14576.8</v>
+        <f t="shared" ref="G19:G21" si="8">P16</f>
+        <v>14.576799999999999</v>
       </c>
     </row>
-    <row r="20" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="G21">
-        <f t="shared" si="10"/>
-        <v>52440.3</v>
+        <f t="shared" si="8"/>
+        <v>52.440300000000001</v>
       </c>
     </row>
   </sheetData>

--- a/sprawka/lab3/wyniki.xlsx
+++ b/sprawka/lab3/wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuperCiuper\Documents\GitHub\PEAproject\sprawka\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3234C0-4D95-4CCC-8B02-B265A61189D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5698EE34-4515-41AF-A8B4-73CAB8D95D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{35CB0FE1-15B9-4927-961C-D0566F903D09}"/>
   </bookViews>
@@ -71,8 +71,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -105,8 +105,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,6 +223,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -358,6 +359,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -371,9 +373,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -492,6 +492,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -834,9 +835,7 @@
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3726,8 +3725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E030250-1702-4C2B-BFB2-8B2C0A8742D5}">
   <dimension ref="D3:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="R4" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3815,7 +3814,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F9" si="0">D5/10/1000</f>
+        <f t="shared" ref="F5:F8" si="0">D5/10/1000</f>
         <v>3.7264000000000004E-3</v>
       </c>
       <c r="U5">
